--- a/development/stimuli/word_lists/word_freq_list_ORIGINAL.xlsx
+++ b/development/stimuli/word_lists/word_freq_list_ORIGINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\codes\subliminal_priming\stimuli\word_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AAD68B4-1AFA-42CE-AC01-8E6137CC7B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE6EF9C-647A-40C9-AA9C-5DEE8EDBACB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,6 +693,8 @@
     <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -708,10 +710,10 @@
       <c r="D1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
